--- a/biology/Médecine/Maurice_Caillet_(médecin)/Maurice_Caillet_(médecin).xlsx
+++ b/biology/Médecine/Maurice_Caillet_(médecin)/Maurice_Caillet_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Caillet_(m%C3%A9decin)</t>
+          <t>Maurice_Caillet_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Caillet, né à Talence le 24 septembre 1933 et mort à Auray le 6 novembre 2021[1], est un essayiste français, chirurgien-gynécologue et urologue, membre de la franc-maçonnerie avant de la quitter à la suite d'une conversion religieuse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Caillet, né à Talence le 24 septembre 1933 et mort à Auray le 6 novembre 2021, est un essayiste français, chirurgien-gynécologue et urologue, membre de la franc-maçonnerie avant de la quitter à la suite d'une conversion religieuse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Caillet_(m%C3%A9decin)</t>
+          <t>Maurice_Caillet_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Caillet est issu d'une famille bretonne, athée et anticléricale, qui avait apostasié[2]. Il n'a pas été baptisé à la naissance et n'a reçu aucune éducation religieuse[3].
-À l'âge de trente-cinq ans, il est initié à la franc-maçonnerie dans l'obédience maçonnique du Grand Orient de France où il reste durant quinze ans, puis s'affilie à la Rose-Croix AMORC, et s'intéresse à la radiesthésie, à l'occultisme en général, ainsi qu'à la magie blanche[4].
-Il est interne aux hôpitaux de Paris et assistant à la faculté de médecine. Puis il exerce la chirurgie notamment gynécologique à Rennes. Chirurgien-urologue et gynécologue, il se dit rationaliste et scientiste, il est membre du Planning familial où il est un pionnier de la contraception et de l'Interruption volontaire de grossesse[3],[5].
-Cependant, à l'âge de cinquante ans, lors d'un voyage à Lourdes en accompagnement de sa femme Claude gravement malade, il assiste à sa première messe ; il vit une conversion religieuse, et demande immédiatement le baptême[6] : « À Lourdes, en 1983, le franc-maçon que j'étais tomba brutalement de son cheval, un peu comme saint Paul sur le chemin de Damas »[3].
-Il est engagé dans le renouveau charismatique et membre sociétaire de l'Association des écrivains catholiques de langue française, membre du comité d'honneur de l'Alliance VITA et de Mère de miséricorde[3],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Caillet est issu d'une famille bretonne, athée et anticléricale, qui avait apostasié. Il n'a pas été baptisé à la naissance et n'a reçu aucune éducation religieuse.
+À l'âge de trente-cinq ans, il est initié à la franc-maçonnerie dans l'obédience maçonnique du Grand Orient de France où il reste durant quinze ans, puis s'affilie à la Rose-Croix AMORC, et s'intéresse à la radiesthésie, à l'occultisme en général, ainsi qu'à la magie blanche.
+Il est interne aux hôpitaux de Paris et assistant à la faculté de médecine. Puis il exerce la chirurgie notamment gynécologique à Rennes. Chirurgien-urologue et gynécologue, il se dit rationaliste et scientiste, il est membre du Planning familial où il est un pionnier de la contraception et de l'Interruption volontaire de grossesse,.
+Cependant, à l'âge de cinquante ans, lors d'un voyage à Lourdes en accompagnement de sa femme Claude gravement malade, il assiste à sa première messe ; il vit une conversion religieuse, et demande immédiatement le baptême : « À Lourdes, en 1983, le franc-maçon que j'étais tomba brutalement de son cheval, un peu comme saint Paul sur le chemin de Damas ».
+Il est engagé dans le renouveau charismatique et membre sociétaire de l'Association des écrivains catholiques de langue française, membre du comité d'honneur de l'Alliance VITA et de Mère de miséricorde,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maurice_Caillet_(m%C3%A9decin)</t>
+          <t>Maurice_Caillet_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Analyses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son parcours s'apparente à celui de John Salza[8] et de Jim Shaw[9] aux États-Unis et à celui de Burkhardt Gorissen[10] en Allemagne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son parcours s'apparente à celui de John Salza et de Jim Shaw aux États-Unis et à celui de Burkhardt Gorissen en Allemagne.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maurice_Caillet_(m%C3%A9decin)</t>
+          <t>Maurice_Caillet_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Du secret des loges à la lumière du Christ, 1998, préface de l'abbé René Laurentin  (ISBN 978-2-90934-115-6) et réédition 2012  (ISBN 978-2-36463-063-5), traduit en polonais et en italien
 édition en italien : I segreti delle logge alla luce di Cristo  (ISBN 978-8-87282-497-9)
